--- a/docs/インターン2016_第1版.xlsx
+++ b/docs/インターン2016_第1版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -1478,6 +1478,60 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,6 +1565,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1532,47 +1595,11 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,15 +1610,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,24 +1617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3569,971 +3569,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{79018950-786B-40A1-AE72-6C836ECCDD19}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15549"/>
-          <a:ext cx="5536266" cy="328185"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>要件定義</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="16021" y="31570"/>
-        <a:ext cx="5504224" cy="296143"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D232929B-20AD-418C-AA68-422674C8FAF5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="343734"/>
-          <a:ext cx="5536266" cy="614790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>開発するアプリケーションの機能と目的、対象範囲のまとめる工程。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>別シート「要件定義」を参照。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="0" y="343734"/>
-        <a:ext cx="5536266" cy="614790"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{0C891F8E-72D0-4E09-8F9F-541CD6D6AAD0}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="891168"/>
-          <a:ext cx="5536266" cy="328185"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部設計（基本・機能設計）</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="16021" y="907189"/>
-        <a:ext cx="5504224" cy="296143"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{FD9F116C-3A9B-474A-8502-0848E1E8EC5B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1286709"/>
-          <a:ext cx="5536266" cy="614790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>製作するアプリのシステム要件・業務要件をまとめる工程。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>別シート「外部設計書」を参照。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="0" y="1286709"/>
-        <a:ext cx="5536266" cy="614790"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B9A6774D-3E6B-4DBE-B756-0C166A96570D}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1901499"/>
-          <a:ext cx="5536266" cy="328185"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>内部設計（詳細設計）</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="16021" y="1917520"/>
-        <a:ext cx="5504224" cy="296143"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E558FC8B-D9D2-4D33-9503-82AAF0DF947F}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2229684"/>
-          <a:ext cx="5536266" cy="614790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システムの構造や仕様をプログラム単位に分割し、動作を定義していく工程。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>別シート「詳細設計書」を参照。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="0" y="2229684"/>
-        <a:ext cx="5536266" cy="614790"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{71BBBAE3-DA4E-4F09-A20B-C0CFFE361C7A}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2844474"/>
-          <a:ext cx="5536266" cy="328185"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>開発（プログラミング）</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="16021" y="2860495"/>
-        <a:ext cx="5504224" cy="296143"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{E835D7AD-719D-4547-8DD8-002A36525944}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3172659"/>
-          <a:ext cx="5536266" cy="409860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>設計書をもとに実装（プログラミング）を行う工程。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="0" y="3172659"/>
-        <a:ext cx="5536266" cy="409860"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{8F045E49-279E-48BC-BBCD-75DAF04CB67B}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3582519"/>
-          <a:ext cx="5536266" cy="328185"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="488950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>テスト</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="16021" y="3598540"/>
-        <a:ext cx="5504224" cy="296143"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{F6677C4E-6EA5-43E3-B404-17186DBF40F5}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3910704"/>
-          <a:ext cx="5536266" cy="614790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>実装されたプログラムの動作確認を行う工程。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="20000"/>
-            </a:spcAft>
-            <a:buChar char="••"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="0" y="3910704"/>
-        <a:ext cx="5536266" cy="614790"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -11488,6 +10523,1127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>130466</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>120717</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8893466" y="7824908"/>
+          <a:ext cx="1794398" cy="532795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>80720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8068235" y="10513396"/>
+          <a:ext cx="3619499" cy="972632"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>税抜価格から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5%OFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引金額</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>税込金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>* 0.05</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（端数切り上げ）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>22410</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="角丸四角形吹き出し 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11105028" y="7082119"/>
+          <a:ext cx="2465296" cy="1311087"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62260"/>
+            <a:gd name="adj2" fmla="val 23531"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　入力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算前合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　所持ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　現在日にち（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1~31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　ポイント使用有無（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>, NO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11205881" y="15542561"/>
+          <a:ext cx="2510118" cy="1389527"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62228"/>
+            <a:gd name="adj2" fmla="val 38020"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　出力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算後合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　割引金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　送料</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　会計後ポイント（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>以上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8706971" y="9087971"/>
+          <a:ext cx="2252382" cy="740990"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>165008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="12075459"/>
+          <a:ext cx="2252382" cy="740990"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8247530" y="14814178"/>
+          <a:ext cx="2913528" cy="896470"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 ＞＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>186018</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>98648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7660342" y="13556913"/>
+          <a:ext cx="4161865" cy="972632"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額の計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算前合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引金額</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12746,8 +12902,8 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="25400">
@@ -12757,13 +12913,13 @@
       <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
       <a:lstStyle>
         <a:defPPr marL="0" indent="0" algn="ctr">
-          <a:defRPr kumimoji="1" sz="1100" b="1">
+          <a:defRPr sz="1200" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:defRPr>
         </a:defPPr>
       </a:lstStyle>
@@ -12809,34 +12965,34 @@
   <sheetData>
     <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="4" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
@@ -12886,44 +13042,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12957,44 +13113,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13138,44 +13294,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13209,44 +13365,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13710,7 +13866,7 @@
   </sheetPr>
   <dimension ref="B1:AL240"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
@@ -13721,44 +13877,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13792,44 +13948,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14132,8 +14288,8 @@
   </sheetPr>
   <dimension ref="B1:AL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB51" sqref="BB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -14143,44 +14299,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14214,44 +14370,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14312,44 +14468,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14383,44 +14539,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14479,44 +14635,44 @@
   <sheetData>
     <row r="1" spans="2:44" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:44" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14550,44 +14706,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:44" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14616,480 +14772,480 @@
       </c>
     </row>
     <row r="14" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="30" t="s">
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="30" t="s">
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="32"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
     </row>
     <row r="15" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="34">
+      <c r="C15" s="45">
         <v>1</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="23" t="s">
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="23" t="s">
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="23" t="s">
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="25"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="43"/>
     </row>
     <row r="16" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="34">
+      <c r="C16" s="45">
         <v>2</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="25"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="43"/>
     </row>
     <row r="17" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="34">
+      <c r="C17" s="45">
         <v>3</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="25"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="43"/>
     </row>
     <row r="18" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="34">
+      <c r="C18" s="45">
         <v>4</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="25"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="43"/>
     </row>
     <row r="19" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="34">
+      <c r="C19" s="45">
         <v>5</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="25"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="43"/>
     </row>
     <row r="20" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="34">
+      <c r="C20" s="45">
         <v>6</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="25"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="43"/>
     </row>
     <row r="21" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="34">
+      <c r="C21" s="45">
         <v>7</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="25"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="43"/>
     </row>
     <row r="22" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="34">
+      <c r="C22" s="45">
         <v>8</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="25"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="43"/>
     </row>
     <row r="23" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="34">
+      <c r="C23" s="45">
         <v>9</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="25"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="43"/>
     </row>
     <row r="24" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R24" s="8" t="s">
@@ -15122,6 +15278,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AG15:AR15"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AR16"/>
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="AG14:AR14"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AG17:AR17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AR19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AG20:AR20"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG21:AR21"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="AG22:AR22"/>
     <mergeCell ref="E23:Q23"/>
     <mergeCell ref="R23:Y23"/>
     <mergeCell ref="Z23:AF23"/>
@@ -15138,42 +15330,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E21:Q21"/>
     <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG21:AR21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="AG22:AR22"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AR19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AG20:AR20"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AG17:AR17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="AG18:AR18"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="AG14:AR14"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG15:AR15"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AR16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
@@ -15187,1625 +15343,1625 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7" style="56"/>
-    <col min="13" max="13" width="8.375" style="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="7" style="56"/>
+    <col min="1" max="1" width="17.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="7" style="29"/>
+    <col min="13" max="13" width="8.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="7" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="57">
+      <c r="D2" s="30">
         <v>0</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="30">
         <v>99</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="30">
         <v>100</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="30">
         <v>101</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="30">
         <v>999</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="30">
         <v>1000</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="30">
         <v>1001</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="30">
         <v>2777</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="30">
         <v>2778</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="30">
         <v>2779</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="30">
         <v>2999</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="30">
         <v>3000</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="30">
         <v>3001</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="31">
         <v>0</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="31">
         <v>0</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="31">
         <v>0</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="31">
         <v>0</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="31">
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="31">
         <v>0</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="31">
         <v>0</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="31">
         <v>0</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="31">
         <v>0</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="31">
         <v>0</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="31">
         <v>0</v>
       </c>
-      <c r="P3" s="59">
+      <c r="P3" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="31">
         <v>0</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="31">
         <v>0</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="31">
         <v>0</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="31">
         <v>0</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="31">
         <v>0</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="31">
         <v>0</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="31">
         <v>0</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="31">
         <v>0</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="31">
         <v>0</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="31">
         <v>0</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="31">
         <v>99</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="31">
         <v>100</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="31">
         <v>101</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="31">
         <v>999</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="31">
         <v>1000</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="31">
         <v>1001</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="31">
         <v>2777</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="31">
         <v>2778</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="31">
         <v>2779</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="31">
         <v>2999</v>
       </c>
-      <c r="O5" s="59">
+      <c r="O5" s="31">
         <v>3000</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="31">
         <v>3001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="31">
         <v>7</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="31">
         <v>8</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="31">
         <v>8</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="31">
         <v>79</v>
       </c>
-      <c r="I6" s="59">
+      <c r="I6" s="31">
         <v>80</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="31">
         <v>80</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="31">
         <v>222</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="31">
         <v>222</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="31">
         <v>222</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="31">
         <v>239</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="31">
         <v>240</v>
       </c>
-      <c r="P6" s="59">
+      <c r="P6" s="31">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="31">
         <v>106</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="31">
         <v>108</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="31">
         <v>109</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="31">
         <v>1078</v>
       </c>
-      <c r="I7" s="59">
+      <c r="I7" s="31">
         <v>1080</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="31">
         <v>1081</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="31">
         <v>2999</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="31">
         <v>3000</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="31">
         <v>3001</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="31">
         <v>3238</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="31">
         <v>3240</v>
       </c>
-      <c r="P7" s="59">
+      <c r="P7" s="31">
         <v>3241</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="31">
         <v>350</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="31">
         <v>350</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="31">
         <v>350</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="31">
         <v>350</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="31">
         <v>350</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="31">
         <v>350</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="31">
         <v>350</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="31">
         <v>0</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="31">
         <v>0</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="31">
         <v>0</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="31">
         <v>0</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="31">
         <v>456</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="31">
         <v>458</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="31">
         <v>459</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="31">
         <v>1428</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="31">
         <v>1430</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="31">
         <v>1431</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="31">
         <v>3349</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="31">
         <v>3000</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="31">
         <v>3001</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="31">
         <v>3238</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="31">
         <v>3240</v>
       </c>
-      <c r="P9" s="59">
+      <c r="P9" s="31">
         <v>3241</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="31">
         <v>1</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="31">
         <v>9</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="31">
         <v>10</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="31">
         <v>10</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="31">
         <v>27</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="31">
         <v>27</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="31">
         <v>27</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="31">
         <v>29</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="31">
         <v>30</v>
       </c>
-      <c r="P10" s="59">
+      <c r="P10" s="31">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="60" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="31">
         <v>-4</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="31">
         <v>-5</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="31">
         <v>-5</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="31">
         <v>-49</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="31">
         <v>-50</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="31">
         <v>-50</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="31">
         <v>-138</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="31">
         <v>-138</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="31">
         <v>-138</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="31">
         <v>-149</v>
       </c>
-      <c r="O12" s="59">
+      <c r="O12" s="31">
         <v>-150</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="31">
         <v>-150</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="31">
         <v>0</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="31">
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="31">
         <v>0</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="31">
         <v>0</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="31">
         <v>0</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="31">
         <v>0</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="31">
         <v>0</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="31">
         <v>0</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="31">
         <v>0</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="31">
         <v>0</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="31">
         <v>95</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="31">
         <v>95</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="31">
         <v>96</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="31">
         <v>950</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="31">
         <v>950</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="31">
         <v>951</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="31">
         <v>2639</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="31">
         <v>2640</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="31">
         <v>2641</v>
       </c>
-      <c r="N14" s="59">
+      <c r="N14" s="31">
         <v>2850</v>
       </c>
-      <c r="O14" s="59">
+      <c r="O14" s="31">
         <v>2850</v>
       </c>
-      <c r="P14" s="59">
+      <c r="P14" s="31">
         <v>2851</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="59">
+      <c r="E15" s="31">
         <v>7</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="31">
         <v>7</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="31">
         <v>7</v>
       </c>
-      <c r="H15" s="59">
+      <c r="H15" s="31">
         <v>76</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="31">
         <v>76</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="31">
         <v>76</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="31">
         <v>211</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="31">
         <v>211</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="31">
         <v>211</v>
       </c>
-      <c r="N15" s="59">
+      <c r="N15" s="31">
         <v>228</v>
       </c>
-      <c r="O15" s="59">
+      <c r="O15" s="31">
         <v>228</v>
       </c>
-      <c r="P15" s="59">
+      <c r="P15" s="31">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="31">
         <v>102</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="31">
         <v>102</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="31">
         <v>103</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="31">
         <v>1026</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="31">
         <v>1026</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="31">
         <v>1027</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="31">
         <v>2850</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="31">
         <v>2851</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="31">
         <v>2852</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="31">
         <v>3078</v>
       </c>
-      <c r="O16" s="59">
+      <c r="O16" s="31">
         <v>3078</v>
       </c>
-      <c r="P16" s="59">
+      <c r="P16" s="31">
         <v>3079</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="59">
+      <c r="E17" s="31">
         <v>350</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="31">
         <v>350</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="31">
         <v>350</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="31">
         <v>350</v>
       </c>
-      <c r="I17" s="59">
+      <c r="I17" s="31">
         <v>350</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="31">
         <v>350</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="31">
         <v>350</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="31">
         <v>350</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="31">
         <v>350</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="31">
         <v>0</v>
       </c>
-      <c r="O17" s="59">
+      <c r="O17" s="31">
         <v>0</v>
       </c>
-      <c r="P17" s="59">
+      <c r="P17" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="31">
         <v>452</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="31">
         <v>452</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="31">
         <v>453</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="31">
         <v>1376</v>
       </c>
-      <c r="I18" s="59">
+      <c r="I18" s="31">
         <v>1376</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="31">
         <v>1377</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="31">
         <v>3200</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="31">
         <v>3201</v>
       </c>
-      <c r="M18" s="59">
+      <c r="M18" s="31">
         <v>3202</v>
       </c>
-      <c r="N18" s="59">
+      <c r="N18" s="31">
         <v>3078</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="31">
         <v>3078</v>
       </c>
-      <c r="P18" s="59">
+      <c r="P18" s="31">
         <v>3079</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="59">
+      <c r="E19" s="31">
         <v>0</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="31">
         <v>0</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="31">
         <v>0</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="31">
         <v>9</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="31">
         <v>9</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="31">
         <v>9</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="31">
         <v>26</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="31">
         <v>26</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="31">
         <v>26</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="31">
         <v>28</v>
       </c>
-      <c r="O19" s="59">
+      <c r="O19" s="31">
         <v>28</v>
       </c>
-      <c r="P19" s="59">
+      <c r="P19" s="31">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="60" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="31">
         <v>0</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="31">
         <v>0</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="31">
         <v>0</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="31">
         <v>0</v>
       </c>
-      <c r="I21" s="59">
+      <c r="I21" s="31">
         <v>0</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="31">
         <v>0</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="31">
         <v>0</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="31">
         <v>0</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="31">
         <v>0</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="31">
         <v>0</v>
       </c>
-      <c r="O21" s="59">
+      <c r="O21" s="31">
         <v>0</v>
       </c>
-      <c r="P21" s="59">
+      <c r="P21" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="31">
         <v>-1000</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="31">
         <v>-1000</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="31">
         <v>-1000</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="31">
         <v>-1000</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="31">
         <v>-1000</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="31">
         <v>-1000</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="31">
         <v>-1000</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="31">
         <v>-1000</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M22" s="31">
         <v>-1000</v>
       </c>
-      <c r="N22" s="59">
+      <c r="N22" s="31">
         <v>-1000</v>
       </c>
-      <c r="O22" s="59">
+      <c r="O22" s="31">
         <v>-1000</v>
       </c>
-      <c r="P22" s="59">
+      <c r="P22" s="31">
         <v>-1000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="31">
         <v>-901</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="31">
         <v>-900</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="31">
         <v>-899</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="31">
         <v>-1</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="31">
         <v>0</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="31">
         <v>1</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="31">
         <v>1777</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="31">
         <v>1778</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="31">
         <v>1779</v>
       </c>
-      <c r="N23" s="59">
+      <c r="N23" s="31">
         <v>1999</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="31">
         <v>2000</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="31">
         <v>2001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="31">
         <v>-72</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="31">
         <v>-72</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="31">
         <v>-71</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="31">
         <v>0</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="31">
         <v>0</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="31">
         <v>0</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="31">
         <v>142</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="31">
         <v>142</v>
       </c>
-      <c r="M24" s="59">
+      <c r="M24" s="31">
         <v>142</v>
       </c>
-      <c r="N24" s="59">
+      <c r="N24" s="31">
         <v>159</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="31">
         <v>160</v>
       </c>
-      <c r="P24" s="59">
+      <c r="P24" s="31">
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="31">
         <v>-973</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="31">
         <v>-972</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="31">
         <v>-970</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="31">
         <v>-1</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I25" s="31">
         <v>0</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="31">
         <v>1</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="31">
         <v>1919</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="31">
         <v>1920</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="31">
         <v>1921</v>
       </c>
-      <c r="N25" s="59">
+      <c r="N25" s="31">
         <v>2158</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="31">
         <v>2160</v>
       </c>
-      <c r="P25" s="59">
+      <c r="P25" s="31">
         <v>2161</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="31">
         <v>350</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="31">
         <v>350</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="31">
         <v>350</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="31">
         <v>350</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="31">
         <v>350</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="31">
         <v>350</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="31">
         <v>350</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="31">
         <v>350</v>
       </c>
-      <c r="M26" s="59">
+      <c r="M26" s="31">
         <v>350</v>
       </c>
-      <c r="N26" s="59">
+      <c r="N26" s="31">
         <v>350</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="31">
         <v>350</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="31">
         <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="31">
         <v>-623</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="31">
         <v>-622</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="31">
         <v>-620</v>
       </c>
-      <c r="H27" s="59">
+      <c r="H27" s="31">
         <v>349</v>
       </c>
-      <c r="I27" s="59">
+      <c r="I27" s="31">
         <v>350</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="31">
         <v>351</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="31">
         <v>2269</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="31">
         <v>2270</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="31">
         <v>2271</v>
       </c>
-      <c r="N27" s="59">
+      <c r="N27" s="31">
         <v>2508</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="31">
         <v>2510</v>
       </c>
-      <c r="P27" s="59">
+      <c r="P27" s="31">
         <v>2511</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="31">
         <v>-9</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="31">
         <v>-9</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="31">
         <v>-8</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="31">
         <v>0</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="31">
         <v>0</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="31">
         <v>0</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="31">
         <v>17</v>
       </c>
-      <c r="L28" s="59">
+      <c r="L28" s="31">
         <v>17</v>
       </c>
-      <c r="M28" s="59">
+      <c r="M28" s="31">
         <v>17</v>
       </c>
-      <c r="N28" s="59">
+      <c r="N28" s="31">
         <v>19</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="31">
         <v>20</v>
       </c>
-      <c r="P28" s="59">
+      <c r="P28" s="31">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="60" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="31">
         <v>-4</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="31">
         <v>-5</v>
       </c>
-      <c r="G30" s="59">
+      <c r="G30" s="31">
         <v>-5</v>
       </c>
-      <c r="H30" s="59">
+      <c r="H30" s="31">
         <v>-49</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="31">
         <v>-50</v>
       </c>
-      <c r="J30" s="59">
+      <c r="J30" s="31">
         <v>-50</v>
       </c>
-      <c r="K30" s="59">
+      <c r="K30" s="31">
         <v>-138</v>
       </c>
-      <c r="L30" s="59">
+      <c r="L30" s="31">
         <v>-138</v>
       </c>
-      <c r="M30" s="59">
+      <c r="M30" s="31">
         <v>-138</v>
       </c>
-      <c r="N30" s="59">
+      <c r="N30" s="31">
         <v>-149</v>
       </c>
-      <c r="O30" s="59">
+      <c r="O30" s="31">
         <v>-150</v>
       </c>
-      <c r="P30" s="59">
+      <c r="P30" s="31">
         <v>-150</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59" t="s">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="31">
         <v>-1000</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="31">
         <v>-1000</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="31">
         <v>-1000</v>
       </c>
-      <c r="H31" s="59">
+      <c r="H31" s="31">
         <v>-1000</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="31">
         <v>-1000</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="31">
         <v>-1000</v>
       </c>
-      <c r="K31" s="59">
+      <c r="K31" s="31">
         <v>-1000</v>
       </c>
-      <c r="L31" s="59">
+      <c r="L31" s="31">
         <v>-1000</v>
       </c>
-      <c r="M31" s="59">
+      <c r="M31" s="31">
         <v>-1000</v>
       </c>
-      <c r="N31" s="59">
+      <c r="N31" s="31">
         <v>-1000</v>
       </c>
-      <c r="O31" s="59">
+      <c r="O31" s="31">
         <v>-1000</v>
       </c>
-      <c r="P31" s="59">
+      <c r="P31" s="31">
         <v>-1000</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59" t="s">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="31">
         <v>-905</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="31">
         <v>-905</v>
       </c>
-      <c r="G32" s="59">
+      <c r="G32" s="31">
         <v>-904</v>
       </c>
-      <c r="H32" s="59">
+      <c r="H32" s="31">
         <v>-50</v>
       </c>
-      <c r="I32" s="59">
+      <c r="I32" s="31">
         <v>-50</v>
       </c>
-      <c r="J32" s="59">
+      <c r="J32" s="31">
         <v>-49</v>
       </c>
-      <c r="K32" s="59">
+      <c r="K32" s="31">
         <v>1639</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="31">
         <v>1640</v>
       </c>
-      <c r="M32" s="59">
+      <c r="M32" s="31">
         <v>1641</v>
       </c>
-      <c r="N32" s="59">
+      <c r="N32" s="31">
         <v>1850</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="31">
         <v>1850</v>
       </c>
-      <c r="P32" s="59">
+      <c r="P32" s="31">
         <v>1851</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="31">
         <v>-72</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="31">
         <v>-72</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="31">
         <v>-72</v>
       </c>
-      <c r="H33" s="59">
+      <c r="H33" s="31">
         <v>-4</v>
       </c>
-      <c r="I33" s="59">
+      <c r="I33" s="31">
         <v>-4</v>
       </c>
-      <c r="J33" s="59">
+      <c r="J33" s="31">
         <v>-3</v>
       </c>
-      <c r="K33" s="59">
+      <c r="K33" s="31">
         <v>131</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="31">
         <v>131</v>
       </c>
-      <c r="M33" s="59">
+      <c r="M33" s="31">
         <v>131</v>
       </c>
-      <c r="N33" s="59">
+      <c r="N33" s="31">
         <v>148</v>
       </c>
-      <c r="O33" s="59">
+      <c r="O33" s="31">
         <v>148</v>
       </c>
-      <c r="P33" s="59">
+      <c r="P33" s="31">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="31">
         <v>-977</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="31">
         <v>-977</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="31">
         <v>-976</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="31">
         <v>-54</v>
       </c>
-      <c r="I34" s="59">
+      <c r="I34" s="31">
         <v>-54</v>
       </c>
-      <c r="J34" s="59">
+      <c r="J34" s="31">
         <v>-52</v>
       </c>
-      <c r="K34" s="59">
+      <c r="K34" s="31">
         <v>1770</v>
       </c>
-      <c r="L34" s="59">
+      <c r="L34" s="31">
         <v>1771</v>
       </c>
-      <c r="M34" s="59">
+      <c r="M34" s="31">
         <v>1772</v>
       </c>
-      <c r="N34" s="59">
+      <c r="N34" s="31">
         <v>1998</v>
       </c>
-      <c r="O34" s="59">
+      <c r="O34" s="31">
         <v>1998</v>
       </c>
-      <c r="P34" s="59">
+      <c r="P34" s="31">
         <v>1999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="31">
         <v>350</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="31">
         <v>350</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="31">
         <v>350</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H35" s="31">
         <v>350</v>
       </c>
-      <c r="I35" s="59">
+      <c r="I35" s="31">
         <v>350</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="31">
         <v>350</v>
       </c>
-      <c r="K35" s="59">
+      <c r="K35" s="31">
         <v>350</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="31">
         <v>350</v>
       </c>
-      <c r="M35" s="59">
+      <c r="M35" s="31">
         <v>350</v>
       </c>
-      <c r="N35" s="59">
+      <c r="N35" s="31">
         <v>350</v>
       </c>
-      <c r="O35" s="59">
+      <c r="O35" s="31">
         <v>350</v>
       </c>
-      <c r="P35" s="59">
+      <c r="P35" s="31">
         <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="31">
         <v>-627</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="31">
         <v>-627</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="31">
         <v>-626</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="31">
         <v>296</v>
       </c>
-      <c r="I36" s="59">
+      <c r="I36" s="31">
         <v>296</v>
       </c>
-      <c r="J36" s="59">
+      <c r="J36" s="31">
         <v>298</v>
       </c>
-      <c r="K36" s="59">
+      <c r="K36" s="31">
         <v>2120</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="31">
         <v>2121</v>
       </c>
-      <c r="M36" s="59">
+      <c r="M36" s="31">
         <v>2122</v>
       </c>
-      <c r="N36" s="59">
+      <c r="N36" s="31">
         <v>2348</v>
       </c>
-      <c r="O36" s="59">
+      <c r="O36" s="31">
         <v>2348</v>
       </c>
-      <c r="P36" s="59">
+      <c r="P36" s="31">
         <v>2349</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="59">
+      <c r="E37" s="31">
         <v>-9</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="31">
         <v>-9</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="31">
         <v>-9</v>
       </c>
-      <c r="H37" s="59">
+      <c r="H37" s="31">
         <v>0</v>
       </c>
-      <c r="I37" s="59">
+      <c r="I37" s="31">
         <v>0</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J37" s="31">
         <v>0</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K37" s="31">
         <v>16</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="31">
         <v>16</v>
       </c>
-      <c r="M37" s="59">
+      <c r="M37" s="31">
         <v>16</v>
       </c>
-      <c r="N37" s="59">
+      <c r="N37" s="31">
         <v>18</v>
       </c>
-      <c r="O37" s="59">
+      <c r="O37" s="31">
         <v>18</v>
       </c>
-      <c r="P37" s="59">
+      <c r="P37" s="31">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="60" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16832,1938 +16988,1938 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="7" style="36"/>
-    <col min="5" max="5" width="7" style="36" customWidth="1"/>
-    <col min="6" max="12" width="7" style="36"/>
-    <col min="13" max="13" width="8.375" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" style="36"/>
-    <col min="15" max="15" width="7" style="36" customWidth="1"/>
-    <col min="16" max="16384" width="7" style="36"/>
+    <col min="1" max="1" width="8.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7" style="15"/>
+    <col min="5" max="5" width="7" style="15" customWidth="1"/>
+    <col min="6" max="12" width="7" style="15"/>
+    <col min="13" max="13" width="8.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="15"/>
+    <col min="15" max="15" width="7" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="7" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D2" s="39">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="18">
         <v>99</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="18">
         <v>100</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="18">
         <v>101</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="18">
         <v>999</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="18">
         <v>1000</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="18">
         <v>1001</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="18">
         <v>2777</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="18">
         <v>2778</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="18">
         <v>2779</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="18">
         <v>2999</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="18">
         <v>3000</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="18">
         <v>3001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="16">
         <v>0</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="16">
         <v>0</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="16">
         <v>0</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="16">
         <v>0</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="16">
         <v>0</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="16">
         <v>0</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="16">
         <v>0</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="16">
         <v>0</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="16">
         <v>0</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="16">
         <v>0</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="15">
         <f>3000/1.08</f>
         <v>2777.7777777777774</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="40" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="16">
         <v>0</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="16">
         <v>0</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="16">
         <v>0</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="16">
         <v>0</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="16">
         <v>0</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="16">
         <v>0</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="16">
         <v>0</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="16">
         <v>0</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="16">
         <f>E2</f>
         <v>99</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:P5" si="0">F2</f>
         <v>100</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="16">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="16">
         <f t="shared" si="0"/>
         <v>2777</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
         <v>2778</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="16">
         <f t="shared" si="0"/>
         <v>2779</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="16">
         <f t="shared" si="0"/>
         <v>2999</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="16">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="16">
         <f t="shared" si="0"/>
         <v>3001</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="16">
         <f>ROUNDDOWN(E5*0.08,0)</f>
         <v>7</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="16">
         <f t="shared" ref="F6:P6" si="1">ROUNDDOWN(F5*0.08,0)</f>
         <v>8</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="16">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="16">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="16">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="16">
         <f t="shared" si="1"/>
         <v>222</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="16">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="16">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="16">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="40" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="16">
         <f>E5+E6</f>
         <v>106</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="16">
         <f t="shared" ref="F7:P7" si="2">F5+F6</f>
         <v>108</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="16">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="16">
         <f t="shared" si="2"/>
         <v>1078</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="16">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="16">
         <f t="shared" si="2"/>
         <v>1081</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="16">
         <f t="shared" si="2"/>
         <v>2999</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="16">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="16">
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="16">
         <f t="shared" si="2"/>
         <v>3238</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="16">
         <f t="shared" si="2"/>
         <v>3240</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="16">
         <f t="shared" si="2"/>
         <v>3241</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="40" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="16">
         <f>IF(E7&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="16">
         <f t="shared" ref="F8:P8" si="3">IF(F7&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="16">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="16">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="16">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="16">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="16">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="23">
         <f>E8+E7</f>
         <v>456</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="23">
         <f t="shared" ref="F9:P9" si="4">F8+F7</f>
         <v>458</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="23">
         <f t="shared" si="4"/>
         <v>459</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="23">
         <f t="shared" si="4"/>
         <v>1428</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="23">
         <f t="shared" si="4"/>
         <v>1430</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="23">
         <f t="shared" si="4"/>
         <v>1431</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="23">
         <f t="shared" si="4"/>
         <v>3349</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="23">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="23">
         <f t="shared" si="4"/>
         <v>3001</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="23">
         <f t="shared" si="4"/>
         <v>3238</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="23">
         <f t="shared" si="4"/>
         <v>3240</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="23">
         <f t="shared" si="4"/>
         <v>3241</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="25">
         <f>ROUNDDOWN(E5/100,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="25">
         <f t="shared" ref="F10:P10" si="5">ROUNDDOWN(F5/100,0)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="25">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="25">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="25">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="25">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="25">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="25">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="25">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="25">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="25">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="16">
         <f>-ROUNDDOWN(E2*0.05,0)</f>
         <v>-4</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="16">
         <f t="shared" ref="F12:P12" si="6">-ROUNDDOWN(F2*0.05,0)</f>
         <v>-5</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="16">
         <f t="shared" si="6"/>
         <v>-5</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="16">
         <f t="shared" si="6"/>
         <v>-49</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="16">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="16">
         <f t="shared" si="6"/>
         <v>-50</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="16">
         <f t="shared" si="6"/>
         <v>-138</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="16">
         <f t="shared" si="6"/>
         <v>-138</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="16">
         <f t="shared" si="6"/>
         <v>-138</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="16">
         <f t="shared" si="6"/>
         <v>-149</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="16">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="16">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="16">
         <v>0</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="16">
         <v>0</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="16">
         <v>0</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="16">
         <v>0</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="16">
         <v>0</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="16">
         <f>E2+E12+E13</f>
         <v>95</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="16">
         <f t="shared" ref="F14:P14" si="7">F2+F12+F13</f>
         <v>95</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="16">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="16">
         <f t="shared" si="7"/>
         <v>950</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="16">
         <f t="shared" si="7"/>
         <v>950</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="16">
         <f t="shared" si="7"/>
         <v>951</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="16">
         <f t="shared" si="7"/>
         <v>2639</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="16">
         <f t="shared" si="7"/>
         <v>2640</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="16">
         <f t="shared" si="7"/>
         <v>2641</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="16">
         <f t="shared" si="7"/>
         <v>2850</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="16">
         <f t="shared" si="7"/>
         <v>2850</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="16">
         <f t="shared" si="7"/>
         <v>2851</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="16">
         <f>ROUNDDOWN(E14*0.08,0)</f>
         <v>7</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="16">
         <f t="shared" ref="F15" si="8">ROUNDDOWN(F14*0.08,0)</f>
         <v>7</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="16">
         <f t="shared" ref="G15" si="9">ROUNDDOWN(G14*0.08,0)</f>
         <v>7</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="16">
         <f t="shared" ref="H15" si="10">ROUNDDOWN(H14*0.08,0)</f>
         <v>76</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="16">
         <f t="shared" ref="I15" si="11">ROUNDDOWN(I14*0.08,0)</f>
         <v>76</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="16">
         <f t="shared" ref="J15" si="12">ROUNDDOWN(J14*0.08,0)</f>
         <v>76</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="16">
         <f t="shared" ref="K15" si="13">ROUNDDOWN(K14*0.08,0)</f>
         <v>211</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="16">
         <f t="shared" ref="L15" si="14">ROUNDDOWN(L14*0.08,0)</f>
         <v>211</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="16">
         <f t="shared" ref="M15" si="15">ROUNDDOWN(M14*0.08,0)</f>
         <v>211</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="16">
         <f t="shared" ref="N15" si="16">ROUNDDOWN(N14*0.08,0)</f>
         <v>228</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="16">
         <f t="shared" ref="O15" si="17">ROUNDDOWN(O14*0.08,0)</f>
         <v>228</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="16">
         <f t="shared" ref="P15" si="18">ROUNDDOWN(P14*0.08,0)</f>
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="16">
         <f>E14+E15</f>
         <v>102</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="16">
         <f t="shared" ref="F16" si="19">F14+F15</f>
         <v>102</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="16">
         <f t="shared" ref="G16" si="20">G14+G15</f>
         <v>103</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="16">
         <f t="shared" ref="H16" si="21">H14+H15</f>
         <v>1026</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="16">
         <f t="shared" ref="I16" si="22">I14+I15</f>
         <v>1026</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="16">
         <f t="shared" ref="J16" si="23">J14+J15</f>
         <v>1027</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="16">
         <f t="shared" ref="K16" si="24">K14+K15</f>
         <v>2850</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="16">
         <f t="shared" ref="L16" si="25">L14+L15</f>
         <v>2851</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="16">
         <f t="shared" ref="M16" si="26">M14+M15</f>
         <v>2852</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="16">
         <f t="shared" ref="N16" si="27">N14+N15</f>
         <v>3078</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="16">
         <f t="shared" ref="O16" si="28">O14+O15</f>
         <v>3078</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="16">
         <f t="shared" ref="P16" si="29">P14+P15</f>
         <v>3079</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="16">
         <f>IF(E16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="16">
         <f t="shared" ref="F17" si="30">IF(F16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="16">
         <f t="shared" ref="G17" si="31">IF(G16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="16">
         <f t="shared" ref="H17" si="32">IF(H16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="16">
         <f t="shared" ref="I17" si="33">IF(I16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="16">
         <f t="shared" ref="J17" si="34">IF(J16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="16">
         <f t="shared" ref="K17" si="35">IF(K16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="16">
         <f t="shared" ref="L17" si="36">IF(L16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="16">
         <f t="shared" ref="M17" si="37">IF(M16&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="16">
         <f t="shared" ref="N17" si="38">IF(N16&gt;=3000,0,350)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="16">
         <f t="shared" ref="O17" si="39">IF(O16&gt;=3000,0,350)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="16">
         <f t="shared" ref="P17" si="40">IF(P16&gt;=3000,0,350)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="23">
         <f>E17+E16</f>
         <v>452</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="23">
         <f t="shared" ref="F18" si="41">F17+F16</f>
         <v>452</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="23">
         <f t="shared" ref="G18" si="42">G17+G16</f>
         <v>453</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="23">
         <f t="shared" ref="H18" si="43">H17+H16</f>
         <v>1376</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="23">
         <f t="shared" ref="I18" si="44">I17+I16</f>
         <v>1376</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="23">
         <f t="shared" ref="J18" si="45">J17+J16</f>
         <v>1377</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="23">
         <f t="shared" ref="K18" si="46">K17+K16</f>
         <v>3200</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="23">
         <f t="shared" ref="L18" si="47">L17+L16</f>
         <v>3201</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="23">
         <f t="shared" ref="M18" si="48">M17+M16</f>
         <v>3202</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="23">
         <f t="shared" ref="N18" si="49">N17+N16</f>
         <v>3078</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="23">
         <f t="shared" ref="O18" si="50">O17+O16</f>
         <v>3078</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="23">
         <f t="shared" ref="P18" si="51">P17+P16</f>
         <v>3079</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="41" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="25">
         <f>ROUNDDOWN(E14/100,0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="25">
         <f t="shared" ref="F19:P19" si="52">ROUNDDOWN(F14/100,0)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="25">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="25">
         <f t="shared" si="52"/>
         <v>9</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="25">
         <f t="shared" si="52"/>
         <v>9</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="25">
         <f t="shared" si="52"/>
         <v>9</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="25">
         <f t="shared" si="52"/>
         <v>26</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="25">
         <f t="shared" si="52"/>
         <v>26</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="25">
         <f t="shared" si="52"/>
         <v>26</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="25">
         <f t="shared" si="52"/>
         <v>28</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="25">
         <f t="shared" si="52"/>
         <v>28</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="25">
         <f t="shared" si="52"/>
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="16">
         <v>0</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="16">
         <v>0</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="16">
         <v>0</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="16">
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="16">
         <v>0</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="16">
         <v>0</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="16">
         <v>0</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="16">
         <v>0</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="16">
         <v>0</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="16">
         <v>0</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="16">
         <v>0</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="40" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="16">
         <v>-1000</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="16">
         <v>-1000</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="16">
         <v>-1000</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="16">
         <v>-1000</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="16">
         <v>-1000</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="16">
         <v>-1000</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="16">
         <v>-1000</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="16">
         <v>-1000</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="16">
         <v>-1000</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="16">
         <v>-1000</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="16">
         <v>-1000</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="16">
         <v>-1000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="40" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="16">
         <f>E2+E21+E22</f>
         <v>-901</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="16">
         <f t="shared" ref="F23:P23" si="53">F2+F21+F22</f>
         <v>-900</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="16">
         <f t="shared" si="53"/>
         <v>-899</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="16">
         <f t="shared" si="53"/>
         <v>-1</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="16">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="16">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="16">
         <f t="shared" si="53"/>
         <v>1777</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="16">
         <f t="shared" si="53"/>
         <v>1778</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="16">
         <f t="shared" si="53"/>
         <v>1779</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="16">
         <f t="shared" si="53"/>
         <v>1999</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="16">
         <f t="shared" si="53"/>
         <v>2000</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="16">
         <f t="shared" si="53"/>
         <v>2001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="40" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="16">
         <f>ROUNDDOWN(E23*0.08,0)</f>
         <v>-72</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="16">
         <f t="shared" ref="F24" si="54">ROUNDDOWN(F23*0.08,0)</f>
         <v>-72</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="16">
         <f t="shared" ref="G24" si="55">ROUNDDOWN(G23*0.08,0)</f>
         <v>-71</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="16">
         <f t="shared" ref="H24" si="56">ROUNDDOWN(H23*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="16">
         <f t="shared" ref="I24" si="57">ROUNDDOWN(I23*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="16">
         <f t="shared" ref="J24" si="58">ROUNDDOWN(J23*0.08,0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="16">
         <f t="shared" ref="K24" si="59">ROUNDDOWN(K23*0.08,0)</f>
         <v>142</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="16">
         <f t="shared" ref="L24" si="60">ROUNDDOWN(L23*0.08,0)</f>
         <v>142</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="16">
         <f t="shared" ref="M24" si="61">ROUNDDOWN(M23*0.08,0)</f>
         <v>142</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="16">
         <f t="shared" ref="N24" si="62">ROUNDDOWN(N23*0.08,0)</f>
         <v>159</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="16">
         <f t="shared" ref="O24" si="63">ROUNDDOWN(O23*0.08,0)</f>
         <v>160</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="16">
         <f t="shared" ref="P24" si="64">ROUNDDOWN(P23*0.08,0)</f>
         <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="40" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="16">
         <f>E23+E24</f>
         <v>-973</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="16">
         <f t="shared" ref="F25" si="65">F23+F24</f>
         <v>-972</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="16">
         <f t="shared" ref="G25" si="66">G23+G24</f>
         <v>-970</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="16">
         <f t="shared" ref="H25" si="67">H23+H24</f>
         <v>-1</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="16">
         <f t="shared" ref="I25" si="68">I23+I24</f>
         <v>0</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="16">
         <f t="shared" ref="J25" si="69">J23+J24</f>
         <v>1</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="16">
         <f t="shared" ref="K25" si="70">K23+K24</f>
         <v>1919</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="16">
         <f t="shared" ref="L25" si="71">L23+L24</f>
         <v>1920</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="16">
         <f t="shared" ref="M25" si="72">M23+M24</f>
         <v>1921</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="16">
         <f t="shared" ref="N25" si="73">N23+N24</f>
         <v>2158</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="16">
         <f t="shared" ref="O25" si="74">O23+O24</f>
         <v>2160</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="16">
         <f t="shared" ref="P25" si="75">P23+P24</f>
         <v>2161</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="40" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="16">
         <f>IF(E25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="16">
         <f t="shared" ref="F26" si="76">IF(F25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="16">
         <f t="shared" ref="G26" si="77">IF(G25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="16">
         <f t="shared" ref="H26" si="78">IF(H25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="16">
         <f t="shared" ref="I26" si="79">IF(I25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="16">
         <f t="shared" ref="J26" si="80">IF(J25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="16">
         <f t="shared" ref="K26" si="81">IF(K25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="16">
         <f t="shared" ref="L26" si="82">IF(L25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="16">
         <f t="shared" ref="M26" si="83">IF(M25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="16">
         <f t="shared" ref="N26" si="84">IF(N25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="16">
         <f t="shared" ref="O26" si="85">IF(O25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="16">
         <f t="shared" ref="P26" si="86">IF(P25&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="23">
         <f>E26+E25</f>
         <v>-623</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="23">
         <f t="shared" ref="F27" si="87">F26+F25</f>
         <v>-622</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="23">
         <f t="shared" ref="G27" si="88">G26+G25</f>
         <v>-620</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="23">
         <f t="shared" ref="H27" si="89">H26+H25</f>
         <v>349</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="23">
         <f t="shared" ref="I27" si="90">I26+I25</f>
         <v>350</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="23">
         <f t="shared" ref="J27" si="91">J26+J25</f>
         <v>351</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="23">
         <f t="shared" ref="K27" si="92">K26+K25</f>
         <v>2269</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="23">
         <f t="shared" ref="L27" si="93">L26+L25</f>
         <v>2270</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="23">
         <f t="shared" ref="M27" si="94">M26+M25</f>
         <v>2271</v>
       </c>
-      <c r="N27" s="44">
+      <c r="N27" s="23">
         <f t="shared" ref="N27" si="95">N26+N25</f>
         <v>2508</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="23">
         <f t="shared" ref="O27" si="96">O26+O25</f>
         <v>2510</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="23">
         <f t="shared" ref="P27" si="97">P26+P25</f>
         <v>2511</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="41" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="25">
         <f>ROUNDDOWN(E23/100,0)</f>
         <v>-9</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="25">
         <f t="shared" ref="F28:P28" si="98">ROUNDDOWN(F23/100,0)</f>
         <v>-9</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="25">
         <f t="shared" si="98"/>
         <v>-8</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="25">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="25">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="25">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="25">
         <f t="shared" si="98"/>
         <v>17</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="25">
         <f t="shared" si="98"/>
         <v>17</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="25">
         <f t="shared" si="98"/>
         <v>17</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="25">
         <f t="shared" si="98"/>
         <v>19</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="25">
         <f t="shared" si="98"/>
         <v>20</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="25">
         <f t="shared" si="98"/>
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="16">
         <f>-ROUNDDOWN(E2*0.05,0)</f>
         <v>-4</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="16">
         <f t="shared" ref="F30:P30" si="99">-ROUNDDOWN(F2*0.05,0)</f>
         <v>-5</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="16">
         <f t="shared" si="99"/>
         <v>-5</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="16">
         <f t="shared" si="99"/>
         <v>-49</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="16">
         <f t="shared" si="99"/>
         <v>-50</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="16">
         <f t="shared" si="99"/>
         <v>-50</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="16">
         <f t="shared" si="99"/>
         <v>-138</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="16">
         <f t="shared" si="99"/>
         <v>-138</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="16">
         <f t="shared" si="99"/>
         <v>-138</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="16">
         <f t="shared" si="99"/>
         <v>-149</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="16">
         <f t="shared" si="99"/>
         <v>-150</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="16">
         <f t="shared" si="99"/>
         <v>-150</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="40" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="16">
         <v>-1000</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="16">
         <v>-1000</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="16">
         <v>-1000</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="16">
         <v>-1000</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="16">
         <v>-1000</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="16">
         <v>-1000</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="16">
         <v>-1000</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="16">
         <v>-1000</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="16">
         <v>-1000</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="16">
         <v>-1000</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="16">
         <v>-1000</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="16">
         <v>-1000</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="16">
         <f>E2+E30+E31</f>
         <v>-905</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="16">
         <f t="shared" ref="F32:P32" si="100">F2+F30+F31</f>
         <v>-905</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="16">
         <f t="shared" si="100"/>
         <v>-904</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="16">
         <f t="shared" si="100"/>
         <v>-50</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="16">
         <f t="shared" si="100"/>
         <v>-50</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="16">
         <f t="shared" si="100"/>
         <v>-49</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="16">
         <f t="shared" si="100"/>
         <v>1639</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="16">
         <f t="shared" si="100"/>
         <v>1640</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="16">
         <f t="shared" si="100"/>
         <v>1641</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="16">
         <f t="shared" si="100"/>
         <v>1850</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="16">
         <f t="shared" si="100"/>
         <v>1850</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="16">
         <f t="shared" si="100"/>
         <v>1851</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="16">
         <f>ROUNDDOWN(E32*0.08,0)</f>
         <v>-72</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="16">
         <f t="shared" ref="F33" si="101">ROUNDDOWN(F32*0.08,0)</f>
         <v>-72</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="16">
         <f t="shared" ref="G33" si="102">ROUNDDOWN(G32*0.08,0)</f>
         <v>-72</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="16">
         <f t="shared" ref="H33" si="103">ROUNDDOWN(H32*0.08,0)</f>
         <v>-4</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="16">
         <f t="shared" ref="I33" si="104">ROUNDDOWN(I32*0.08,0)</f>
         <v>-4</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="16">
         <f t="shared" ref="J33" si="105">ROUNDDOWN(J32*0.08,0)</f>
         <v>-3</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="16">
         <f t="shared" ref="K33" si="106">ROUNDDOWN(K32*0.08,0)</f>
         <v>131</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="16">
         <f t="shared" ref="L33" si="107">ROUNDDOWN(L32*0.08,0)</f>
         <v>131</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="16">
         <f t="shared" ref="M33" si="108">ROUNDDOWN(M32*0.08,0)</f>
         <v>131</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="16">
         <f t="shared" ref="N33" si="109">ROUNDDOWN(N32*0.08,0)</f>
         <v>148</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="16">
         <f t="shared" ref="O33" si="110">ROUNDDOWN(O32*0.08,0)</f>
         <v>148</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="16">
         <f t="shared" ref="P33" si="111">ROUNDDOWN(P32*0.08,0)</f>
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="40" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="16">
         <f>E32+E33</f>
         <v>-977</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="16">
         <f t="shared" ref="F34" si="112">F32+F33</f>
         <v>-977</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="16">
         <f t="shared" ref="G34" si="113">G32+G33</f>
         <v>-976</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="16">
         <f t="shared" ref="H34" si="114">H32+H33</f>
         <v>-54</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="16">
         <f t="shared" ref="I34" si="115">I32+I33</f>
         <v>-54</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="16">
         <f t="shared" ref="J34" si="116">J32+J33</f>
         <v>-52</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="16">
         <f t="shared" ref="K34" si="117">K32+K33</f>
         <v>1770</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="16">
         <f t="shared" ref="L34" si="118">L32+L33</f>
         <v>1771</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="16">
         <f t="shared" ref="M34" si="119">M32+M33</f>
         <v>1772</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="16">
         <f t="shared" ref="N34" si="120">N32+N33</f>
         <v>1998</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="16">
         <f t="shared" ref="O34" si="121">O32+O33</f>
         <v>1998</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="16">
         <f t="shared" ref="P34" si="122">P32+P33</f>
         <v>1999</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="40" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="16">
         <f>IF(E34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="16">
         <f t="shared" ref="F35" si="123">IF(F34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="16">
         <f t="shared" ref="G35" si="124">IF(G34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="16">
         <f t="shared" ref="H35" si="125">IF(H34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="16">
         <f t="shared" ref="I35" si="126">IF(I34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="16">
         <f t="shared" ref="J35" si="127">IF(J34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="16">
         <f t="shared" ref="K35" si="128">IF(K34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="16">
         <f t="shared" ref="L35" si="129">IF(L34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="16">
         <f t="shared" ref="M35" si="130">IF(M34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="16">
         <f t="shared" ref="N35" si="131">IF(N34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="16">
         <f t="shared" ref="O35" si="132">IF(O34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="16">
         <f t="shared" ref="P35" si="133">IF(P34&gt;=3000,0,350)</f>
         <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="23">
         <f>E35+E34</f>
         <v>-627</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="23">
         <f t="shared" ref="F36" si="134">F35+F34</f>
         <v>-627</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="23">
         <f t="shared" ref="G36" si="135">G35+G34</f>
         <v>-626</v>
       </c>
-      <c r="H36" s="44">
+      <c r="H36" s="23">
         <f t="shared" ref="H36" si="136">H35+H34</f>
         <v>296</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="23">
         <f t="shared" ref="I36" si="137">I35+I34</f>
         <v>296</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="23">
         <f t="shared" ref="J36" si="138">J35+J34</f>
         <v>298</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="23">
         <f t="shared" ref="K36" si="139">K35+K34</f>
         <v>2120</v>
       </c>
-      <c r="L36" s="44">
+      <c r="L36" s="23">
         <f t="shared" ref="L36" si="140">L35+L34</f>
         <v>2121</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="23">
         <f t="shared" ref="M36" si="141">M35+M34</f>
         <v>2122</v>
       </c>
-      <c r="N36" s="44">
+      <c r="N36" s="23">
         <f t="shared" ref="N36" si="142">N35+N34</f>
         <v>2348</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="23">
         <f t="shared" ref="O36" si="143">O35+O34</f>
         <v>2348</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="23">
         <f t="shared" ref="P36" si="144">P35+P34</f>
         <v>2349</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="41" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="25">
         <f>ROUNDDOWN(E32/100,0)</f>
         <v>-9</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="25">
         <f t="shared" ref="F37:P37" si="145">ROUNDDOWN(F32/100,0)</f>
         <v>-9</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="25">
         <f t="shared" si="145"/>
         <v>-9</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="25">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="25">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="25">
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="25">
         <f t="shared" si="145"/>
         <v>16</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="25">
         <f t="shared" si="145"/>
         <v>16</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="25">
         <f t="shared" si="145"/>
         <v>16</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="25">
         <f t="shared" si="145"/>
         <v>18</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="25">
         <f t="shared" si="145"/>
         <v>18</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="25">
         <f t="shared" si="145"/>
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="50" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/インターン2016_第1版.xlsx
+++ b/docs/インターン2016_第1版.xlsx
@@ -1565,15 +1565,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1594,6 +1585,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9217,7 +9217,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1818397" y="7868682"/>
+          <a:off x="1818397" y="9684035"/>
           <a:ext cx="359199" cy="357599"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -10599,16 +10599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>80720</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10619,7 +10619,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8068235" y="10513396"/>
+          <a:off x="7989793" y="10098778"/>
           <a:ext cx="3619499" cy="972632"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11018,15 +11018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>123263</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>134474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11035,13 +11035,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11205881" y="15542561"/>
+          <a:off x="11172265" y="21055856"/>
           <a:ext cx="2510118" cy="1389527"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -62228"/>
-            <a:gd name="adj2" fmla="val 38020"/>
+            <a:gd name="adj1" fmla="val -68478"/>
+            <a:gd name="adj2" fmla="val -24077"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -11210,19 +11210,14 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:colOff>33624</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132983</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1402</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2521317" cy="756000"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
@@ -11232,8 +11227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8706971" y="9087971"/>
-          <a:ext cx="2252382" cy="740990"/>
+          <a:off x="8538889" y="8952012"/>
+          <a:ext cx="2521317" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -11264,7 +11259,9 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
@@ -11277,7 +11274,40 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ポイントの使用</a:t>
+            <a:t>現在日にちが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>または</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>30</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
@@ -11291,19 +11321,19 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>219635</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:colOff>174811</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>165008</xdr:rowOff>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11314,7 +11344,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="12075459"/>
+          <a:off x="8680076" y="11436722"/>
           <a:ext cx="2252382" cy="740990"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -11377,15 +11407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
+      <xdr:colOff>100855</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11396,8 +11426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8247530" y="14814178"/>
-          <a:ext cx="2913528" cy="896470"/>
+          <a:off x="8348384" y="17985441"/>
+          <a:ext cx="2868705" cy="756000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -11480,16 +11510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>186018</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>98648</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>141198</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>53818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>62751</xdr:rowOff>
+      <xdr:colOff>78443</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>89641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11500,7 +11530,358 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7660342" y="13556913"/>
+          <a:off x="7873257" y="19361553"/>
+          <a:ext cx="3803274" cy="1044353"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送料を加算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送料 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= 350</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>+ 350</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>118782</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>129987</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10685929" y="15999796"/>
+          <a:ext cx="3619499" cy="1234852"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>加算ポイントの計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計後ポイント </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/100</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>237566</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711890" y="14034282"/>
           <a:ext cx="4161865" cy="972632"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -11588,7 +11969,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>= </a:t>
+            <a:t>= (</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
@@ -11629,6 +12010,19 @@
             </a:rPr>
             <a:t>割引金額</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) * 1.08 </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -11639,6 +12033,1762 @@
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>254459</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5607</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>132983</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="0"/>
+          <a:endCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9790665" y="8357703"/>
+          <a:ext cx="8883" cy="594309"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>82159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5607</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="39" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9799543" y="9708012"/>
+          <a:ext cx="5" cy="390766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>5602</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197222</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9799543" y="11071410"/>
+          <a:ext cx="6724" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>34341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>253255</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="0"/>
+          <a:endCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9782737" y="15913076"/>
+          <a:ext cx="6724" cy="2072365"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>253255</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>256617</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9789461" y="15006914"/>
+          <a:ext cx="3362" cy="150162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238688</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>53818</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9774894" y="18741441"/>
+          <a:ext cx="7843" cy="620112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>248770</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7980829" y="12375813"/>
+          <a:ext cx="3619499" cy="1234852"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの移動</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引価格 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>- 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計後ポイント </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= -1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>254373</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="0"/>
+          <a:endCxn id="41" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9790579" y="12177712"/>
+          <a:ext cx="15688" cy="198101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>254373</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>256617</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="0"/>
+          <a:endCxn id="101" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9790579" y="13610665"/>
+          <a:ext cx="2244" cy="423617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107579</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>141195</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>34341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8355108" y="15157076"/>
+          <a:ext cx="2868705" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91105</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>73355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="角丸四角形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8863854" y="21067060"/>
+          <a:ext cx="1794398" cy="532795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>224847</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>89641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238688</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9761053" y="20405906"/>
+          <a:ext cx="13841" cy="661154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>256617</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="0"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9249108" y="12350933"/>
+          <a:ext cx="2227065" cy="1139635"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9479"/>
+            <a:gd name="adj2" fmla="val 236087"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>12325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9379881" y="9756398"/>
+          <a:ext cx="2106710" cy="1253939"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6986"/>
+            <a:gd name="adj2" fmla="val 188830"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>141195</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>59752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>124385</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121061</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+          <a:endCxn id="119" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11627386" y="15131503"/>
+          <a:ext cx="464720" cy="1271866"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>246532</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>124386</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="0"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10763812" y="16253574"/>
+          <a:ext cx="750793" cy="2712942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>198024</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>6635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>41752</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>162528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9218759" y="12052959"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103898</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>147829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>205361</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>102016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10928780" y="11790741"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>249575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>93303</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>102016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11074457" y="8966858"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>41142</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>142606</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9835083" y="9699724"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>70280</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>103006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>171744</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11152898" y="15174918"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>63553</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>165017</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>162528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9342024" y="15885371"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>52347</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>153811</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>39263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9846288" y="18787694"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>224848</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>64235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="0"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9137262" y="18987233"/>
+          <a:ext cx="2703619" cy="1456036"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7778"/>
+            <a:gd name="adj2" fmla="val 193431"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>43386</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>87318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>144850</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>41505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11126004" y="17983112"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14288,8 +16438,8 @@
   </sheetPr>
   <dimension ref="B1:AL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB51" sqref="BB51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG87" sqref="BG87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -14635,44 +16785,44 @@
   <sheetData>
     <row r="1" spans="2:44" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:44" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14772,64 +16922,64 @@
       </c>
     </row>
     <row r="14" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="48" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="51" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="51" t="s">
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="51" t="s">
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
-      <c r="AQ14" s="52"/>
-      <c r="AR14" s="53"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="50"/>
     </row>
     <row r="15" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="45">
+      <c r="C15" s="52">
         <v>1</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="40" t="s">
         <v>67</v>
       </c>
@@ -14880,10 +17030,10 @@
       <c r="AR15" s="43"/>
     </row>
     <row r="16" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="45">
+      <c r="C16" s="52">
         <v>2</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -14926,10 +17076,10 @@
       <c r="AR16" s="43"/>
     </row>
     <row r="17" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="45">
+      <c r="C17" s="52">
         <v>3</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -14972,10 +17122,10 @@
       <c r="AR17" s="43"/>
     </row>
     <row r="18" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="45">
+      <c r="C18" s="52">
         <v>4</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -15018,10 +17168,10 @@
       <c r="AR18" s="43"/>
     </row>
     <row r="19" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="45">
+      <c r="C19" s="52">
         <v>5</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -15064,10 +17214,10 @@
       <c r="AR19" s="43"/>
     </row>
     <row r="20" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="45">
+      <c r="C20" s="52">
         <v>6</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -15110,10 +17260,10 @@
       <c r="AR20" s="43"/>
     </row>
     <row r="21" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="45">
+      <c r="C21" s="52">
         <v>7</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -15156,10 +17306,10 @@
       <c r="AR21" s="43"/>
     </row>
     <row r="22" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="45">
+      <c r="C22" s="52">
         <v>8</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -15202,10 +17352,10 @@
       <c r="AR22" s="43"/>
     </row>
     <row r="23" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="45">
+      <c r="C23" s="52">
         <v>9</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -15278,42 +17428,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="R15:Y15"/>
-    <mergeCell ref="Z15:AF15"/>
-    <mergeCell ref="AG15:AR15"/>
-    <mergeCell ref="E16:Q16"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="AG16:AR16"/>
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-    <mergeCell ref="E14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="AG14:AR14"/>
-    <mergeCell ref="E17:Q17"/>
-    <mergeCell ref="R17:Y17"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AG17:AR17"/>
-    <mergeCell ref="E18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AF18"/>
-    <mergeCell ref="AG18:AR18"/>
-    <mergeCell ref="E19:Q19"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AF19"/>
-    <mergeCell ref="AG19:AR19"/>
-    <mergeCell ref="E20:Q20"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="AG20:AR20"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="AG21:AR21"/>
-    <mergeCell ref="E22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="AG22:AR22"/>
     <mergeCell ref="E23:Q23"/>
     <mergeCell ref="R23:Y23"/>
     <mergeCell ref="Z23:AF23"/>
@@ -15330,6 +17444,42 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E21:Q21"/>
     <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="AG21:AR21"/>
+    <mergeCell ref="E22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="AG22:AR22"/>
+    <mergeCell ref="E19:Q19"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AF19"/>
+    <mergeCell ref="AG19:AR19"/>
+    <mergeCell ref="E20:Q20"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AG20:AR20"/>
+    <mergeCell ref="E17:Q17"/>
+    <mergeCell ref="R17:Y17"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AG17:AR17"/>
+    <mergeCell ref="E18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AF18"/>
+    <mergeCell ref="AG18:AR18"/>
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+    <mergeCell ref="E14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="AG14:AR14"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="R15:Y15"/>
+    <mergeCell ref="Z15:AF15"/>
+    <mergeCell ref="AG15:AR15"/>
+    <mergeCell ref="E16:Q16"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="AG16:AR16"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>

--- a/docs/インターン2016_第1版.xlsx
+++ b/docs/インターン2016_第1版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7515" tabRatio="848" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -16,8 +16,10 @@
     <sheet name="テスト" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId8"/>
     <sheet name="Sheet1 (2)" sheetId="14" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Sheet2!$A$1:$BB$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テスト!$A$1:$BA$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">概要!$A$1:$BA$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">基本設計書!$A$1:$BA$27</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="103">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -1062,12 +1064,117 @@
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>所持ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>現在日にち</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ポイント使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>入力データ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>期待される出力データ</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>清算後金額</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>割引金額</t>
+    <rPh sb="0" eb="2">
+      <t>ワリビキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>会計後ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>清算前金額</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -1235,8 +1342,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,8 +1409,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1420,6 +1562,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1432,7 +1600,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +1700,9 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,6 +1789,36 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3569,6 +3770,971 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{79018950-786B-40A1-AE72-6C836ECCDD19}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15549"/>
+          <a:ext cx="5536266" cy="328185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>要件定義</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16021" y="31570"/>
+        <a:ext cx="5504224" cy="296143"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D232929B-20AD-418C-AA68-422674C8FAF5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="343734"/>
+          <a:ext cx="5536266" cy="614790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開発するアプリケーションの機能と目的、対象範囲のまとめる工程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>別シート「要件定義」を参照。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="343734"/>
+        <a:ext cx="5536266" cy="614790"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0C891F8E-72D0-4E09-8F9F-541CD6D6AAD0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="891168"/>
+          <a:ext cx="5536266" cy="328185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>外部設計（基本・機能設計）</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16021" y="907189"/>
+        <a:ext cx="5504224" cy="296143"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FD9F116C-3A9B-474A-8502-0848E1E8EC5B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1286709"/>
+          <a:ext cx="5536266" cy="614790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>製作するアプリのシステム要件・業務要件をまとめる工程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>別シート「外部設計書」を参照。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="1286709"/>
+        <a:ext cx="5536266" cy="614790"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B9A6774D-3E6B-4DBE-B756-0C166A96570D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1901499"/>
+          <a:ext cx="5536266" cy="328185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>内部設計（詳細設計）</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16021" y="1917520"/>
+        <a:ext cx="5504224" cy="296143"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E558FC8B-D9D2-4D33-9503-82AAF0DF947F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2229684"/>
+          <a:ext cx="5536266" cy="614790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システムの構造や仕様をプログラム単位に分割し、動作を定義していく工程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>別シート「詳細設計書」を参照。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="2229684"/>
+        <a:ext cx="5536266" cy="614790"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{71BBBAE3-DA4E-4F09-A20B-C0CFFE361C7A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2844474"/>
+          <a:ext cx="5536266" cy="328185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開発（プログラミング）</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16021" y="2860495"/>
+        <a:ext cx="5504224" cy="296143"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E835D7AD-719D-4547-8DD8-002A36525944}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3172659"/>
+          <a:ext cx="5536266" cy="409860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設計書をもとに実装（プログラミング）を行う工程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="3172659"/>
+        <a:ext cx="5536266" cy="409860"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8F045E49-279E-48BC-BBCD-75DAF04CB67B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3582519"/>
+          <a:ext cx="5536266" cy="328185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テスト</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="16021" y="3598540"/>
+        <a:ext cx="5504224" cy="296143"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F6677C4E-6EA5-43E3-B404-17186DBF40F5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3910704"/>
+          <a:ext cx="5536266" cy="614790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="175776" tIns="13970" rIns="78232" bIns="13970" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>実装されたプログラムの動作確認を行う工程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="20000"/>
+            </a:spcAft>
+            <a:buChar char="••"/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="0" y="3910704"/>
+        <a:ext cx="5536266" cy="614790"/>
+      </dsp:txXfrm>
+    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -11018,15 +12184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>134474</xdr:rowOff>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>22415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11035,13 +12201,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11172265" y="21055856"/>
+          <a:off x="11116235" y="21347209"/>
           <a:ext cx="2510118" cy="1389527"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -68478"/>
-            <a:gd name="adj2" fmla="val -24077"/>
+            <a:gd name="adj1" fmla="val -65353"/>
+            <a:gd name="adj2" fmla="val -37787"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -14823,6 +15989,3866 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>277501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3610451" y="1171414"/>
+          <a:ext cx="1794398" cy="532795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658903</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>373698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182652</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2706778" y="3445284"/>
+          <a:ext cx="3619499" cy="972632"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>税抜価格から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>5%OFF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引金額</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>税込金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>* 0.05</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（端数切り上げ）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>444727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95809</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803870" y="433161"/>
+          <a:ext cx="2456225" cy="1376589"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62260"/>
+            <a:gd name="adj2" fmla="val 23531"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　入力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算前合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　所持ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　現在日にち（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1~31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　ポイント使用有無（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>, NO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>151838</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>403505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5833220" y="14693715"/>
+          <a:ext cx="2510118" cy="1389527"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65353"/>
+            <a:gd name="adj2" fmla="val -37787"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　出力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算後合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　割引金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　送料</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　会計後ポイント（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>以上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525374</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>322988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>303491</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>480274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255874" y="2298518"/>
+          <a:ext cx="2521317" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>現在日にちが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>または</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666561</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188443</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>248275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3397061" y="4783228"/>
+          <a:ext cx="2252382" cy="740990"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334869</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473074</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>242249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3065369" y="11331947"/>
+          <a:ext cx="2868705" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 ＞＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>3000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542367</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>307190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>249891</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>256848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590242" y="12708059"/>
+          <a:ext cx="3803274" cy="1044353"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送料を加算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送料 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= 350</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>+ 350</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624539</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>240176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>148288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>380559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402914" y="9346302"/>
+          <a:ext cx="3619499" cy="1234852"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>加算ポイントの計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計後ポイント </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/100</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>475163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>347430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="7380788"/>
+          <a:ext cx="4161865" cy="972632"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額の計算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算後合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>清算前合計金額 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引金額</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) * 1.08 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>277501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>322988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4507650" y="1704209"/>
+          <a:ext cx="8883" cy="594309"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420778</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>543774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>373698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4516528" y="3054518"/>
+          <a:ext cx="5" cy="390766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420778</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427502</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4516528" y="4417916"/>
+          <a:ext cx="6724" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403972</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>410696</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15114</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4499722" y="9259582"/>
+          <a:ext cx="6724" cy="2072365"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>410696</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>347430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414058</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>497820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4506446" y="8353420"/>
+          <a:ext cx="3362" cy="150162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396129</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>242249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403972</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>307190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4491879" y="12087947"/>
+          <a:ext cx="7843" cy="620112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>649939</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>456128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173688</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="靴を履く" descr="処理図形 (四角形)" title="靴を履く"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2697814" y="5722319"/>
+          <a:ext cx="3619499" cy="1234852"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11049"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの移動</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引価格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>割引価格 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>- 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会計後ポイント </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>= -1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411814</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>248275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427502</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>456128</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4507564" y="5524218"/>
+          <a:ext cx="15688" cy="198101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>411814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414058</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>475163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4507564" y="6957171"/>
+          <a:ext cx="2244" cy="423617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>341593</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>497820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479798</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="二重結び?" descr="意思決定図形 (ダイヤモンド)" title="二重結び?"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3072093" y="8503582"/>
+          <a:ext cx="2868705" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポイントの使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>373262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596862</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>350886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3580839" y="14413566"/>
+          <a:ext cx="1794398" cy="532795"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382288</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>256848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396129</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>373262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4478038" y="13752412"/>
+          <a:ext cx="13841" cy="661154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414058</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>442705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188443</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>475164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3966093" y="5697439"/>
+          <a:ext cx="2227065" cy="1139635"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9479"/>
+            <a:gd name="adj2" fmla="val 236087"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427501</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316190</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>61550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4096866" y="3102904"/>
+          <a:ext cx="2106710" cy="1253939"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6986"/>
+            <a:gd name="adj2" fmla="val 188830"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>479798</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>310897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386414</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>240176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6344371" y="8478009"/>
+          <a:ext cx="464720" cy="1271866"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403973</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>380559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386415</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15114</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5480797" y="9600080"/>
+          <a:ext cx="750793" cy="2712942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522619</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>490872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3935744" y="5399465"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184765</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>416703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543964</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5645765" y="5137247"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330442</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>341916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7016</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791442" y="2313364"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456318</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>535486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132892</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>337685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552068" y="3046230"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408883</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>515662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85457</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>308338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5869883" y="8521424"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>645884</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105794</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322458</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>483575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4059009" y="9231877"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>467523</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>288502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144097</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4563273" y="12134200"/>
+          <a:ext cx="359199" cy="357598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382289</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>425090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>373262</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 2" descr="&quot;&quot;" title="線コネクタ"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3854247" y="12333739"/>
+          <a:ext cx="2703619" cy="1456036"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7778"/>
+            <a:gd name="adj2" fmla="val 193431"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381989</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58563</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>386485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="○" descr="意思決定ラベル (円)" title="○"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842989" y="11329618"/>
+          <a:ext cx="359199" cy="357599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>474731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>519636</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>453035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43710227" y="3332231"/>
+          <a:ext cx="1815034" cy="549804"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>249411</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>666834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>289958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形吹き出し 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45945599" y="2328412"/>
+          <a:ext cx="2489110" cy="1390546"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62260"/>
+            <a:gd name="adj2" fmla="val 23531"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　入力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算前合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　所持ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　現在日にち（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1~31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　ポイント使用有無（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>, NO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>591856</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>341921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形吹き出し 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46288044" y="17757012"/>
+          <a:ext cx="2541867" cy="1444409"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65353"/>
+            <a:gd name="adj2" fmla="val -37787"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　出力データ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　清算後合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　割引金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　送料</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　・　会計後ポイント（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>以上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>387352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>311680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>133872</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>298828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="角丸四角形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44011852" y="17456680"/>
+          <a:ext cx="1818208" cy="558648"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15115,34 +20141,34 @@
   <sheetData>
     <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="4" spans="2:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
@@ -15169,6 +20195,398 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="T3:BN46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="19" width="9" style="33"/>
+    <col min="20" max="23" width="33.125" style="33" customWidth="1"/>
+    <col min="24" max="24" width="6.125" style="33" customWidth="1"/>
+    <col min="25" max="28" width="33.125" style="33" customWidth="1"/>
+    <col min="29" max="29" width="9.125" style="33" customWidth="1"/>
+    <col min="30" max="30" width="20.25" style="33" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+    </row>
+    <row r="4" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+    </row>
+    <row r="5" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+    </row>
+    <row r="6" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+    </row>
+    <row r="7" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+    </row>
+    <row r="8" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+    </row>
+    <row r="9" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+    </row>
+    <row r="10" spans="20:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+    </row>
+    <row r="31" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="63"/>
+      <c r="BJ31" s="63"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="63"/>
+    </row>
+    <row r="32" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="63"/>
+      <c r="BJ32" s="63"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="63"/>
+    </row>
+    <row r="33" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="63"/>
+      <c r="BJ33" s="63"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+    </row>
+    <row r="34" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="63"/>
+    </row>
+    <row r="35" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="63"/>
+    </row>
+    <row r="36" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD36" s="63"/>
+      <c r="BE36" s="63"/>
+      <c r="BF36" s="63"/>
+      <c r="BG36" s="63"/>
+      <c r="BH36" s="63"/>
+      <c r="BI36" s="63"/>
+      <c r="BJ36" s="63"/>
+      <c r="BK36" s="63"/>
+      <c r="BL36" s="63"/>
+      <c r="BM36" s="63"/>
+      <c r="BN36" s="63"/>
+    </row>
+    <row r="37" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD37" s="63"/>
+      <c r="BE37" s="63"/>
+      <c r="BF37" s="63"/>
+      <c r="BG37" s="63"/>
+      <c r="BH37" s="63"/>
+      <c r="BI37" s="63"/>
+      <c r="BJ37" s="63"/>
+      <c r="BK37" s="63"/>
+      <c r="BL37" s="63"/>
+      <c r="BM37" s="63"/>
+      <c r="BN37" s="63"/>
+    </row>
+    <row r="38" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD38" s="63"/>
+      <c r="BE38" s="63"/>
+      <c r="BF38" s="63"/>
+      <c r="BG38" s="63"/>
+      <c r="BH38" s="63"/>
+      <c r="BI38" s="63"/>
+      <c r="BJ38" s="63"/>
+      <c r="BK38" s="63"/>
+      <c r="BL38" s="63"/>
+      <c r="BM38" s="63"/>
+      <c r="BN38" s="63"/>
+    </row>
+    <row r="39" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="63"/>
+      <c r="BJ39" s="63"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="63"/>
+    </row>
+    <row r="40" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD40" s="63"/>
+      <c r="BE40" s="63"/>
+      <c r="BF40" s="63"/>
+      <c r="BG40" s="63"/>
+      <c r="BH40" s="63"/>
+      <c r="BI40" s="63"/>
+      <c r="BJ40" s="63"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="63"/>
+      <c r="BN40" s="63"/>
+    </row>
+    <row r="41" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD41" s="63"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="63"/>
+      <c r="BG41" s="63"/>
+      <c r="BH41" s="63"/>
+      <c r="BI41" s="63"/>
+      <c r="BJ41" s="63"/>
+      <c r="BK41" s="63"/>
+      <c r="BL41" s="63"/>
+      <c r="BM41" s="63"/>
+      <c r="BN41" s="63"/>
+    </row>
+    <row r="42" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD42" s="63"/>
+      <c r="BE42" s="63"/>
+      <c r="BF42" s="63"/>
+      <c r="BG42" s="63"/>
+      <c r="BH42" s="63"/>
+      <c r="BI42" s="63"/>
+      <c r="BJ42" s="63"/>
+      <c r="BK42" s="63"/>
+      <c r="BL42" s="63"/>
+      <c r="BM42" s="63"/>
+      <c r="BN42" s="63"/>
+    </row>
+    <row r="43" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD43" s="63"/>
+      <c r="BE43" s="63"/>
+      <c r="BF43" s="63"/>
+      <c r="BG43" s="63"/>
+      <c r="BH43" s="63"/>
+      <c r="BI43" s="63"/>
+      <c r="BJ43" s="63"/>
+      <c r="BK43" s="63"/>
+      <c r="BL43" s="63"/>
+      <c r="BM43" s="63"/>
+      <c r="BN43" s="63"/>
+    </row>
+    <row r="44" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD44" s="63"/>
+      <c r="BE44" s="63"/>
+      <c r="BF44" s="63"/>
+      <c r="BG44" s="63"/>
+      <c r="BH44" s="63"/>
+      <c r="BI44" s="63"/>
+      <c r="BJ44" s="63"/>
+      <c r="BK44" s="63"/>
+      <c r="BL44" s="63"/>
+      <c r="BM44" s="63"/>
+      <c r="BN44" s="63"/>
+    </row>
+    <row r="45" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD45" s="63"/>
+      <c r="BE45" s="63"/>
+      <c r="BF45" s="63"/>
+      <c r="BG45" s="63"/>
+      <c r="BH45" s="63"/>
+      <c r="BI45" s="63"/>
+      <c r="BJ45" s="63"/>
+      <c r="BK45" s="63"/>
+      <c r="BL45" s="63"/>
+      <c r="BM45" s="63"/>
+      <c r="BN45" s="63"/>
+    </row>
+    <row r="46" spans="56:66" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BD46" s="63"/>
+      <c r="BE46" s="63"/>
+      <c r="BF46" s="63"/>
+      <c r="BG46" s="63"/>
+      <c r="BH46" s="63"/>
+      <c r="BI46" s="63"/>
+      <c r="BJ46" s="63"/>
+      <c r="BK46" s="63"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="63"/>
+      <c r="BN46" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AD5:AD6"/>
+  </mergeCells>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="3" manualBreakCount="3">
+    <brk id="17" max="32" man="1"/>
+    <brk id="30" max="32" man="1"/>
+    <brk id="38" max="32" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15192,44 +20610,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15263,44 +20681,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15433,8 +20851,8 @@
   </sheetPr>
   <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -15444,44 +20862,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15515,44 +20933,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16016,7 +21434,7 @@
   </sheetPr>
   <dimension ref="B1:AL240"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
@@ -16027,44 +21445,44 @@
   <sheetData>
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16098,44 +21516,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16438,177 +21856,8 @@
   </sheetPr>
   <dimension ref="B1:AL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG87" sqref="BG87"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="3.375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="3"/>
-    </row>
-    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="5"/>
-    </row>
-    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:38" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="34:34" x14ac:dyDescent="0.2">
-      <c r="AH51" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:AK2"/>
-    <mergeCell ref="B4:AK4"/>
-  </mergeCells>
-  <phoneticPr fontId="6"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="4"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AL66"/>
-  <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="BH33" activeCellId="1" sqref="BL31 AS33:BH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -16619,7 +21868,7 @@
     <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -16689,44 +21938,213 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:38" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="34:34" x14ac:dyDescent="0.2">
+      <c r="AH51" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:AK2"/>
+    <mergeCell ref="B4:AK4"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AL66"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:38" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:38" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="3"/>
+    </row>
+    <row r="3" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="2:38" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16774,8 +22192,8 @@
   </sheetPr>
   <dimension ref="B1:AR37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -16785,44 +22203,44 @@
   <sheetData>
     <row r="1" spans="2:44" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:44" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
       <c r="AL2" s="3"/>
     </row>
     <row r="3" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16856,44 +22274,44 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="2:44" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="2:44" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16922,480 +22340,480 @@
       </c>
     </row>
     <row r="14" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="45" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48" t="s">
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="48" t="s">
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="48" t="s">
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="49"/>
-      <c r="AR14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="51"/>
     </row>
     <row r="15" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="52">
+      <c r="C15" s="53">
         <v>1</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="41" t="s">
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="41" t="s">
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="44"/>
     </row>
     <row r="16" spans="2:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="52">
+      <c r="C16" s="53">
         <v>2</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="43"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
     </row>
     <row r="17" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="52">
+      <c r="C17" s="53">
         <v>3</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="43"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="43"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="43"/>
+      <c r="AP17" s="43"/>
+      <c r="AQ17" s="43"/>
+      <c r="AR17" s="44"/>
     </row>
     <row r="18" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="52">
+      <c r="C18" s="53">
         <v>4</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="43"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="43"/>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="43"/>
+      <c r="AP18" s="43"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="44"/>
     </row>
     <row r="19" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="52">
+      <c r="C19" s="53">
         <v>5</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="43"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="44"/>
     </row>
     <row r="20" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="52">
+      <c r="C20" s="53">
         <v>6</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="43"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
+      <c r="AR20" s="44"/>
     </row>
     <row r="21" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="52">
+      <c r="C21" s="53">
         <v>7</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="43"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
+      <c r="AR21" s="44"/>
     </row>
     <row r="22" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="52">
+      <c r="C22" s="53">
         <v>8</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="43"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="44"/>
     </row>
     <row r="23" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="52">
+      <c r="C23" s="53">
         <v>9</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="43"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="44"/>
     </row>
     <row r="24" spans="3:44" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R24" s="8" t="s">
@@ -17493,8 +22911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -17550,10 +22968,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -17600,8 +23018,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="31" t="s">
         <v>86</v>
       </c>
@@ -17646,8 +23064,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="31" t="s">
         <v>89</v>
       </c>
@@ -17692,8 +23110,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="31" t="s">
         <v>76</v>
       </c>
@@ -17738,8 +23156,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="31" t="s">
         <v>84</v>
       </c>
@@ -17784,8 +23202,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="31" t="s">
         <v>77</v>
       </c>
@@ -17830,8 +23248,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="31" t="s">
         <v>80</v>
       </c>
@@ -17876,8 +23294,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="31" t="s">
         <v>78</v>
       </c>
@@ -17922,8 +23340,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="32" t="s">
         <v>88</v>
       </c>
@@ -17942,8 +23360,8 @@
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -17990,8 +23408,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="31" t="s">
         <v>86</v>
       </c>
@@ -18036,8 +23454,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="31" t="s">
         <v>90</v>
       </c>
@@ -18082,8 +23500,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="31" t="s">
         <v>76</v>
       </c>
@@ -18128,8 +23546,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="31" t="s">
         <v>84</v>
       </c>
@@ -18174,8 +23592,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="31" t="s">
         <v>77</v>
       </c>
@@ -18220,8 +23638,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="31" t="s">
         <v>80</v>
       </c>
@@ -18266,8 +23684,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="31" t="s">
         <v>78</v>
       </c>
@@ -18312,8 +23730,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="32" t="s">
         <v>88</v>
       </c>
@@ -18332,10 +23750,10 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -18382,8 +23800,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="31" t="s">
         <v>86</v>
       </c>
@@ -18428,8 +23846,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="31" t="s">
         <v>89</v>
       </c>
@@ -18474,8 +23892,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="31" t="s">
         <v>76</v>
       </c>
@@ -18520,8 +23938,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="31" t="s">
         <v>84</v>
       </c>
@@ -18566,8 +23984,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="31" t="s">
         <v>77</v>
       </c>
@@ -18612,8 +24030,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="31" t="s">
         <v>80</v>
       </c>
@@ -18658,8 +24076,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="31" t="s">
         <v>78</v>
       </c>
@@ -18704,8 +24122,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="32" t="s">
         <v>88</v>
       </c>
@@ -18724,8 +24142,8 @@
       <c r="P29" s="32"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="31" t="s">
@@ -18772,8 +24190,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="31" t="s">
         <v>86</v>
       </c>
@@ -18818,8 +24236,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="31" t="s">
         <v>90</v>
       </c>
@@ -18864,8 +24282,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="31" t="s">
         <v>76</v>
       </c>
@@ -18910,8 +24328,8 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="31" t="s">
         <v>84</v>
       </c>
@@ -18956,8 +24374,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="31" t="s">
         <v>77</v>
       </c>
@@ -19002,8 +24420,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="31" t="s">
         <v>80</v>
       </c>
@@ -19048,8 +24466,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="31" t="s">
         <v>78</v>
       </c>
@@ -19094,8 +24512,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="32" t="s">
         <v>88</v>
       </c>
@@ -19130,10 +24548,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R38"/>
+  <dimension ref="A2:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19150,7 +24568,7 @@
     <col min="16" max="16384" width="7" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D2" s="18">
         <v>0</v>
       </c>
@@ -19191,11 +24609,11 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -19240,14 +24658,10 @@
       <c r="P3" s="16">
         <v>0</v>
       </c>
-      <c r="R3" s="15">
-        <f>3000/1.08</f>
-        <v>2777.7777777777774</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="57"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="19" t="s">
         <v>86</v>
       </c>
@@ -19291,9 +24705,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="19" t="s">
         <v>89</v>
       </c>
@@ -19349,9 +24763,9 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="57"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="19" t="s">
         <v>76</v>
       </c>
@@ -19407,9 +24821,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="57"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="19" t="s">
         <v>84</v>
       </c>
@@ -19465,9 +24879,9 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="57"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="19" t="s">
         <v>77</v>
       </c>
@@ -19523,9 +24937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="57"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="61"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="21" t="s">
         <v>80</v>
       </c>
@@ -19581,9 +24995,9 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="57"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="20" t="s">
         <v>79</v>
       </c>
@@ -19639,9 +25053,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
@@ -19659,9 +25073,9 @@
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="60"/>
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -19719,9 +25133,9 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="19" t="s">
         <v>86</v>
       </c>
@@ -19765,9 +25179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="19" t="s">
         <v>90</v>
       </c>
@@ -19823,9 +25237,9 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="19" t="s">
         <v>76</v>
       </c>
@@ -19881,9 +25295,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="61"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="19" t="s">
         <v>84</v>
       </c>
@@ -19940,8 +25354,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="60"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
@@ -19998,8 +25412,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="21" t="s">
         <v>80</v>
       </c>
@@ -20056,8 +25470,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="20" t="s">
         <v>79</v>
       </c>
@@ -20114,8 +25528,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="26" t="s">
         <v>88</v>
       </c>
@@ -20134,10 +25548,10 @@
       <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -20184,8 +25598,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="58"/>
       <c r="C22" s="19" t="s">
         <v>86</v>
       </c>
@@ -20230,8 +25644,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="19" t="s">
         <v>89</v>
       </c>
@@ -20288,8 +25702,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="19" t="s">
         <v>76</v>
       </c>
@@ -20346,8 +25760,8 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="19" t="s">
         <v>84</v>
       </c>
@@ -20404,8 +25818,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="19" t="s">
         <v>77</v>
       </c>
@@ -20462,8 +25876,8 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="21" t="s">
         <v>80</v>
       </c>
@@ -20520,8 +25934,8 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="20" t="s">
         <v>79</v>
       </c>
@@ -20578,8 +25992,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="26" t="s">
         <v>88</v>
       </c>
@@ -20598,8 +26012,8 @@
       <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -20658,8 +26072,8 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="19" t="s">
         <v>86</v>
       </c>
@@ -20704,8 +26118,8 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="19" t="s">
         <v>90</v>
       </c>
@@ -20762,8 +26176,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="57"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="19" t="s">
         <v>76</v>
       </c>
@@ -20820,8 +26234,8 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="57"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="19" t="s">
         <v>84</v>
       </c>
@@ -20878,8 +26292,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="57"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="19" t="s">
         <v>77</v>
       </c>
@@ -20936,8 +26350,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="57"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="21" t="s">
         <v>80</v>
       </c>
@@ -20994,8 +26408,8 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="57"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="20" t="s">
         <v>79</v>
       </c>
@@ -21052,8 +26466,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="26" t="s">
         <v>88</v>
       </c>
